--- a/output/StructureDefinition-genome-entity.xlsx
+++ b/output/StructureDefinition-genome-entity.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T11:28:20+02:00</t>
+    <t>2023-03-28T11:43:34+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-genome-entity.xlsx
+++ b/output/StructureDefinition-genome-entity.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T11:43:34+02:00</t>
+    <t>2023-03-28T12:16:37+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-genome-entity.xlsx
+++ b/output/StructureDefinition-genome-entity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T18:12:15+02:00</t>
+    <t>2023-04-06T19:36:35+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-genome-entity.xlsx
+++ b/output/StructureDefinition-genome-entity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T19:36:35+02:00</t>
+    <t>2023-04-10T11:48:35+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-genome-entity.xlsx
+++ b/output/StructureDefinition-genome-entity.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$113</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3774" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3807" uniqueCount="432">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-10T11:48:35+02:00</t>
+    <t>2023-04-12T16:34:31+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -402,33 +402,57 @@
     <t>MolecularSequence.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>genomeentityType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://build.fhir.org/ig/arkhn/arkhn-ig-osiris/StructureDefinition/genomeentityType}
+</t>
+  </si>
+  <si>
+    <t>Molecular entity</t>
+  </si>
+  <si>
+    <t>OSIRIS code of the molecular entity where the genomic alteration is found.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>OSIRIS_pivot_Annotation.GenomeEntity_Type</t>
+  </si>
+  <si>
+    <t>MolecularSequence.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>MolecularSequence.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -436,6 +460,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -464,19 +491,19 @@
     <t>MolecularSequence.type</t>
   </si>
   <si>
-    <t>Molecular entity</t>
-  </si>
-  <si>
-    <t>OSIRIS code of the molecular entity where the genomic alteration is found.</t>
+    <t>aa | dna | rna</t>
+  </si>
+  <si>
+    <t>Amino Acid Sequence/ DNA Sequence / RNA Sequence.</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>https://build.fhir.org/ig/arkhn/arkhn-ig-osiris/ValueSet/GenomeEntityType</t>
-  </si>
-  <si>
-    <t>OSIRIS_pivot_Annotation.GenomeEntity_Type</t>
+    <t>Type if a sequence -- DNA, RNA, or amino acid sequence.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/sequence-type|4.0.1</t>
   </si>
   <si>
     <t>MolecularSequence.coordinateSystem</t>
@@ -599,6 +626,9 @@
     <t>MolecularSequence.referenceSeq.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
@@ -1093,9 +1123,6 @@
   </si>
   <si>
     <t>Slice based on repository pattern</t>
-  </si>
-  <si>
-    <t>open</t>
   </si>
   <si>
     <t>MolecularSequence.repository.id</t>
@@ -1638,7 +1665,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL112"/>
+  <dimension ref="A1:AL113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1671,7 +1698,7 @@
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.9609375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="76.5390625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="69.44140625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="59.96484375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.1015625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="30.39453125" customWidth="true" bestFit="true"/>
@@ -2561,11 +2588,11 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>75</v>
@@ -2580,17 +2607,15 @@
         <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L9" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>129</v>
-      </c>
+      <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>73</v>
@@ -2627,16 +2652,14 @@
         <v>73</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>130</v>
@@ -2657,51 +2680,49 @@
         <v>73</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>73</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N10" t="s" s="2">
         <v>135</v>
       </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>73</v>
       </c>
@@ -2749,7 +2770,7 @@
         <v>73</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>74</v>
@@ -2758,7 +2779,7 @@
         <v>75</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>131</v>
@@ -2767,19 +2788,19 @@
         <v>73</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>73</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>73</v>
+        <v>139</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2792,23 +2813,25 @@
         <v>73</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="M11" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="N11" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>73</v>
@@ -2857,7 +2880,7 @@
         <v>73</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>74</v>
@@ -2869,21 +2892,21 @@
         <v>73</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>142</v>
+        <v>73</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>73</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2891,13 +2914,13 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>73</v>
@@ -2906,16 +2929,18 @@
         <v>81</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+      <c r="N12" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O12" t="s" s="2">
         <v>73</v>
       </c>
@@ -2939,11 +2964,13 @@
         <v>73</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="X12" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y12" t="s" s="2">
-        <v>147</v>
+        <v>73</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>73</v>
@@ -2961,13 +2988,13 @@
         <v>73</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>73</v>
@@ -2976,18 +3003,18 @@
         <v>92</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>73</v>
+        <v>150</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>148</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2995,13 +3022,13 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>73</v>
@@ -3010,13 +3037,13 @@
         <v>81</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -3028,7 +3055,7 @@
         <v>73</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>73</v>
@@ -3043,13 +3070,13 @@
         <v>73</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>73</v>
+        <v>155</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>73</v>
@@ -3067,10 +3094,10 @@
         <v>73</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
@@ -3091,9 +3118,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3101,13 +3128,13 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>73</v>
@@ -3116,13 +3143,13 @@
         <v>81</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3134,7 +3161,7 @@
         <v>73</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S14" t="s" s="2">
         <v>73</v>
@@ -3173,10 +3200,10 @@
         <v>73</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
@@ -3194,12 +3221,12 @@
         <v>73</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3213,7 +3240,7 @@
         <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>73</v>
@@ -3222,13 +3249,13 @@
         <v>81</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3279,7 +3306,7 @@
         <v>73</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>74</v>
@@ -3300,12 +3327,12 @@
         <v>73</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>73</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3328,13 +3355,13 @@
         <v>81</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3385,7 +3412,7 @@
         <v>73</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>74</v>
@@ -3411,7 +3438,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3434,13 +3461,13 @@
         <v>81</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3491,7 +3518,7 @@
         <v>73</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>74</v>
@@ -3517,7 +3544,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3540,13 +3567,13 @@
         <v>81</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3597,7 +3624,7 @@
         <v>73</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>74</v>
@@ -3623,7 +3650,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3646,13 +3673,13 @@
         <v>81</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3703,7 +3730,7 @@
         <v>73</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>74</v>
@@ -3715,7 +3742,7 @@
         <v>73</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>178</v>
+        <v>92</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>73</v>
@@ -3729,7 +3756,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3749,16 +3776,16 @@
         <v>73</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3809,7 +3836,7 @@
         <v>73</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>74</v>
@@ -3821,13 +3848,13 @@
         <v>73</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>73</v>
+        <v>186</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>184</v>
+        <v>73</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>73</v>
@@ -3835,18 +3862,18 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>73</v>
@@ -3858,17 +3885,15 @@
         <v>73</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>126</v>
+        <v>188</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>127</v>
+        <v>189</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>129</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>73</v>
@@ -3917,25 +3942,25 @@
         <v>73</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>73</v>
@@ -3943,11 +3968,11 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>189</v>
+        <v>139</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3960,26 +3985,24 @@
         <v>73</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>73</v>
       </c>
@@ -4027,7 +4050,7 @@
         <v>73</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>74</v>
@@ -4045,7 +4068,7 @@
         <v>73</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>123</v>
+        <v>192</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>73</v>
@@ -4053,39 +4076,43 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>73</v>
+        <v>198</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>194</v>
+        <v>125</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>73</v>
       </c>
@@ -4109,13 +4136,13 @@
         <v>73</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>197</v>
+        <v>73</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>198</v>
+        <v>73</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>199</v>
+        <v>73</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>73</v>
@@ -4133,25 +4160,25 @@
         <v>73</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>73</v>
@@ -4159,7 +4186,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4182,13 +4209,13 @@
         <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4215,13 +4242,13 @@
         <v>73</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>73</v>
+        <v>206</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>73</v>
+        <v>207</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>73</v>
+        <v>208</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>73</v>
@@ -4239,7 +4266,7 @@
         <v>73</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>74</v>
@@ -4265,7 +4292,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4288,13 +4315,13 @@
         <v>81</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>100</v>
+        <v>188</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4321,13 +4348,13 @@
         <v>73</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>206</v>
+        <v>73</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>207</v>
+        <v>73</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>73</v>
@@ -4345,7 +4372,7 @@
         <v>73</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>74</v>
@@ -4371,7 +4398,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4394,13 +4421,13 @@
         <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4427,31 +4454,31 @@
         <v>73</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>197</v>
+        <v>154</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Y26" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE26" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>74</v>
@@ -4477,7 +4504,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4500,13 +4527,13 @@
         <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4533,13 +4560,13 @@
         <v>73</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>73</v>
+        <v>206</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>73</v>
@@ -4557,7 +4584,7 @@
         <v>73</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>74</v>
@@ -4583,7 +4610,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4606,13 +4633,13 @@
         <v>81</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>180</v>
+        <v>223</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4663,7 +4690,7 @@
         <v>73</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>74</v>
@@ -4689,7 +4716,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4712,13 +4739,13 @@
         <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>100</v>
+        <v>188</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4745,13 +4772,13 @@
         <v>73</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>223</v>
+        <v>73</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>224</v>
+        <v>73</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>73</v>
@@ -4769,7 +4796,7 @@
         <v>73</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>74</v>
@@ -4795,7 +4822,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4818,13 +4845,13 @@
         <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4851,13 +4878,13 @@
         <v>73</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>73</v>
+        <v>232</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>73</v>
+        <v>233</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>73</v>
@@ -4875,7 +4902,7 @@
         <v>73</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>74</v>
@@ -4901,7 +4928,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4924,13 +4951,13 @@
         <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4981,7 +5008,7 @@
         <v>73</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>74</v>
@@ -5007,7 +5034,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5018,7 +5045,7 @@
         <v>74</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>73</v>
@@ -5030,13 +5057,13 @@
         <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5087,13 +5114,13 @@
         <v>73</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>73</v>
@@ -5113,7 +5140,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5124,7 +5151,7 @@
         <v>74</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>73</v>
@@ -5133,16 +5160,16 @@
         <v>73</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>182</v>
+        <v>242</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5193,25 +5220,25 @@
         <v>73</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>183</v>
+        <v>240</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>184</v>
+        <v>73</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>73</v>
@@ -5219,18 +5246,18 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>73</v>
@@ -5242,17 +5269,15 @@
         <v>73</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>126</v>
+        <v>188</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>127</v>
+        <v>189</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>129</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>73</v>
@@ -5301,25 +5326,25 @@
         <v>73</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>73</v>
@@ -5327,11 +5352,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>189</v>
+        <v>139</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5344,26 +5369,24 @@
         <v>73</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>73</v>
       </c>
@@ -5411,7 +5434,7 @@
         <v>73</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>74</v>
@@ -5429,7 +5452,7 @@
         <v>73</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>123</v>
+        <v>192</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>73</v>
@@ -5437,39 +5460,43 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>73</v>
+        <v>198</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>73</v>
       </c>
@@ -5517,25 +5544,25 @@
         <v>73</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>237</v>
+        <v>201</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>73</v>
@@ -5543,7 +5570,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5566,13 +5593,13 @@
         <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5623,7 +5650,7 @@
         <v>73</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>74</v>
@@ -5649,7 +5676,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5672,13 +5699,13 @@
         <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5729,7 +5756,7 @@
         <v>73</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>74</v>
@@ -5755,7 +5782,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5778,13 +5805,13 @@
         <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5835,7 +5862,7 @@
         <v>73</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>74</v>
@@ -5861,7 +5888,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5884,13 +5911,13 @@
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5941,7 +5968,7 @@
         <v>73</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>74</v>
@@ -5967,7 +5994,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5990,13 +6017,13 @@
         <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>253</v>
+        <v>188</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6047,7 +6074,7 @@
         <v>73</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>74</v>
@@ -6073,7 +6100,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6096,13 +6123,13 @@
         <v>81</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>180</v>
+        <v>262</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6153,7 +6180,7 @@
         <v>73</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>74</v>
@@ -6179,7 +6206,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6190,7 +6217,7 @@
         <v>74</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>73</v>
@@ -6202,13 +6229,13 @@
         <v>81</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6259,13 +6286,13 @@
         <v>73</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>73</v>
@@ -6285,7 +6312,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6296,7 +6323,7 @@
         <v>74</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>73</v>
@@ -6305,16 +6332,16 @@
         <v>73</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>181</v>
+        <v>269</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>182</v>
+        <v>270</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6365,25 +6392,25 @@
         <v>73</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>183</v>
+        <v>268</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>184</v>
+        <v>73</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>73</v>
@@ -6391,18 +6418,18 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>73</v>
@@ -6414,17 +6441,15 @@
         <v>73</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>126</v>
+        <v>188</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>127</v>
+        <v>189</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>129</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>73</v>
@@ -6473,25 +6498,25 @@
         <v>73</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>73</v>
@@ -6499,11 +6524,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>189</v>
+        <v>139</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6516,26 +6541,24 @@
         <v>73</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>73</v>
       </c>
@@ -6583,7 +6606,7 @@
         <v>73</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>74</v>
@@ -6601,7 +6624,7 @@
         <v>73</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>123</v>
+        <v>192</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>73</v>
@@ -6609,39 +6632,43 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>73</v>
+        <v>198</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>266</v>
+        <v>199</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>73</v>
       </c>
@@ -6665,13 +6692,13 @@
         <v>73</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>268</v>
+        <v>73</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>269</v>
+        <v>73</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>73</v>
@@ -6689,25 +6716,25 @@
         <v>73</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>265</v>
+        <v>201</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>73</v>
@@ -6715,7 +6742,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6723,7 +6750,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>80</v>
@@ -6738,13 +6765,13 @@
         <v>81</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6771,34 +6798,34 @@
         <v>73</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>197</v>
+        <v>154</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Y48" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE48" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="Z48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>270</v>
-      </c>
       <c r="AF48" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -6821,7 +6848,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6844,13 +6871,13 @@
         <v>81</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>150</v>
+        <v>203</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6877,13 +6904,13 @@
         <v>73</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>73</v>
+        <v>206</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>73</v>
+        <v>282</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>73</v>
+        <v>283</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>73</v>
@@ -6901,7 +6928,7 @@
         <v>73</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>74</v>
@@ -6927,7 +6954,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6950,13 +6977,13 @@
         <v>81</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7007,7 +7034,7 @@
         <v>73</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>74</v>
@@ -7033,7 +7060,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7056,13 +7083,13 @@
         <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7113,7 +7140,7 @@
         <v>73</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>74</v>
@@ -7139,7 +7166,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7162,13 +7189,13 @@
         <v>81</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7195,13 +7222,13 @@
         <v>73</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>197</v>
+        <v>73</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>287</v>
+        <v>73</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>288</v>
+        <v>73</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>73</v>
@@ -7219,7 +7246,7 @@
         <v>73</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>74</v>
@@ -7245,7 +7272,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7268,13 +7295,13 @@
         <v>81</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>290</v>
+        <v>203</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7301,13 +7328,13 @@
         <v>73</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>73</v>
+        <v>206</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>73</v>
+        <v>296</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>73</v>
+        <v>297</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>73</v>
@@ -7325,7 +7352,7 @@
         <v>73</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>74</v>
@@ -7351,7 +7378,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7374,13 +7401,13 @@
         <v>81</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7431,7 +7458,7 @@
         <v>73</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>74</v>
@@ -7457,7 +7484,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7480,13 +7507,13 @@
         <v>81</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7537,7 +7564,7 @@
         <v>73</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>74</v>
@@ -7563,7 +7590,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7586,13 +7613,13 @@
         <v>81</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7643,7 +7670,7 @@
         <v>73</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>74</v>
@@ -7669,7 +7696,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7692,13 +7719,13 @@
         <v>81</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7749,7 +7776,7 @@
         <v>73</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>74</v>
@@ -7775,7 +7802,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7798,13 +7825,13 @@
         <v>81</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7855,7 +7882,7 @@
         <v>73</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>74</v>
@@ -7881,7 +7908,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7904,13 +7931,13 @@
         <v>81</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7961,7 +7988,7 @@
         <v>73</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>74</v>
@@ -7987,7 +8014,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8010,13 +8037,13 @@
         <v>81</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8067,7 +8094,7 @@
         <v>73</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>74</v>
@@ -8093,7 +8120,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8116,13 +8143,13 @@
         <v>81</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>175</v>
+        <v>299</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8173,7 +8200,7 @@
         <v>73</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>74</v>
@@ -8199,7 +8226,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8219,16 +8246,16 @@
         <v>73</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>181</v>
+        <v>324</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>182</v>
+        <v>325</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8279,7 +8306,7 @@
         <v>73</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>183</v>
+        <v>323</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>74</v>
@@ -8291,13 +8318,13 @@
         <v>73</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>184</v>
+        <v>73</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>73</v>
@@ -8305,18 +8332,18 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>73</v>
@@ -8328,17 +8355,15 @@
         <v>73</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>126</v>
+        <v>188</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>127</v>
+        <v>189</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>129</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>73</v>
@@ -8387,25 +8412,25 @@
         <v>73</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>73</v>
@@ -8413,11 +8438,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>189</v>
+        <v>139</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -8430,26 +8455,24 @@
         <v>73</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>73</v>
       </c>
@@ -8497,7 +8520,7 @@
         <v>73</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>74</v>
@@ -8515,7 +8538,7 @@
         <v>73</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>123</v>
+        <v>192</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>73</v>
@@ -8523,11 +8546,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>73</v>
+        <v>198</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -8540,22 +8563,26 @@
         <v>73</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>321</v>
+        <v>199</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>73</v>
       </c>
@@ -8603,7 +8630,7 @@
         <v>73</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>320</v>
+        <v>201</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>74</v>
@@ -8615,13 +8642,13 @@
         <v>73</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>73</v>
@@ -8629,7 +8656,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8652,13 +8679,13 @@
         <v>81</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -8709,7 +8736,7 @@
         <v>73</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>74</v>
@@ -8735,7 +8762,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8758,13 +8785,13 @@
         <v>81</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8815,7 +8842,7 @@
         <v>73</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>74</v>
@@ -8841,7 +8868,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8864,13 +8891,13 @@
         <v>81</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8921,7 +8948,7 @@
         <v>73</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>74</v>
@@ -8947,7 +8974,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8970,13 +8997,13 @@
         <v>81</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>290</v>
+        <v>158</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9027,7 +9054,7 @@
         <v>73</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>74</v>
@@ -9053,7 +9080,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9076,13 +9103,13 @@
         <v>81</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9133,7 +9160,7 @@
         <v>73</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>74</v>
@@ -9159,7 +9186,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9182,13 +9209,13 @@
         <v>81</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9239,7 +9266,7 @@
         <v>73</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>74</v>
@@ -9265,7 +9292,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9276,7 +9303,7 @@
         <v>74</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>73</v>
@@ -9288,13 +9315,13 @@
         <v>81</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>150</v>
+        <v>299</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9345,13 +9372,13 @@
         <v>73</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>73</v>
@@ -9371,7 +9398,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9382,7 +9409,7 @@
         <v>74</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>73</v>
@@ -9394,13 +9421,13 @@
         <v>81</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9439,25 +9466,25 @@
         <v>73</v>
       </c>
       <c r="AA73" t="s" s="2">
-        <v>347</v>
+        <v>73</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>348</v>
+        <v>73</v>
       </c>
       <c r="AC73" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD73" t="s" s="2">
-        <v>349</v>
+        <v>73</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>73</v>
@@ -9477,7 +9504,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9488,7 +9515,7 @@
         <v>74</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>73</v>
@@ -9497,16 +9524,16 @@
         <v>73</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>181</v>
+        <v>354</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>182</v>
+        <v>355</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -9545,37 +9572,37 @@
         <v>73</v>
       </c>
       <c r="AA74" t="s" s="2">
-        <v>73</v>
+        <v>356</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>73</v>
+        <v>357</v>
       </c>
       <c r="AC74" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>183</v>
+        <v>353</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>184</v>
+        <v>73</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>73</v>
@@ -9583,18 +9610,18 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>73</v>
@@ -9606,17 +9633,15 @@
         <v>73</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>126</v>
+        <v>188</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>127</v>
+        <v>189</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>129</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>73</v>
@@ -9665,25 +9690,25 @@
         <v>73</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>73</v>
@@ -9691,11 +9716,11 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>189</v>
+        <v>139</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -9708,26 +9733,24 @@
         <v>73</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>73</v>
       </c>
@@ -9775,7 +9798,7 @@
         <v>73</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>74</v>
@@ -9793,7 +9816,7 @@
         <v>73</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>123</v>
+        <v>192</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>73</v>
@@ -9801,39 +9824,43 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>73</v>
+        <v>198</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>354</v>
+        <v>199</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O77" t="s" s="2">
         <v>73</v>
       </c>
@@ -9857,13 +9884,13 @@
         <v>73</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>356</v>
+        <v>73</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>357</v>
+        <v>73</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>73</v>
@@ -9881,25 +9908,25 @@
         <v>73</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>353</v>
+        <v>201</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>73</v>
@@ -9907,7 +9934,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9915,7 +9942,7 @@
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F78" t="s" s="2">
         <v>80</v>
@@ -9930,13 +9957,13 @@
         <v>81</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -9963,13 +9990,13 @@
         <v>73</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>73</v>
+        <v>364</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>73</v>
+        <v>365</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>73</v>
@@ -9987,10 +10014,10 @@
         <v>73</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -10013,7 +10040,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10036,13 +10063,13 @@
         <v>81</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>180</v>
+        <v>94</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10093,7 +10120,7 @@
         <v>73</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>74</v>
@@ -10119,7 +10146,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10142,13 +10169,13 @@
         <v>81</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -10199,7 +10226,7 @@
         <v>73</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>74</v>
@@ -10225,7 +10252,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10248,13 +10275,13 @@
         <v>81</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10305,7 +10332,7 @@
         <v>73</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>74</v>
@@ -10331,7 +10358,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10354,13 +10381,13 @@
         <v>81</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -10411,7 +10438,7 @@
         <v>73</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>74</v>
@@ -10437,11 +10464,9 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>372</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
         <v>73</v>
       </c>
@@ -10462,13 +10487,13 @@
         <v>81</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>345</v>
+        <v>378</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>346</v>
+        <v>379</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -10519,13 +10544,13 @@
         <v>73</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>344</v>
+        <v>377</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>73</v>
@@ -10545,9 +10570,11 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="B84" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="C84" t="s" s="2">
         <v>73</v>
       </c>
@@ -10565,16 +10592,16 @@
         <v>73</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>181</v>
+        <v>354</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>182</v>
+        <v>355</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -10625,25 +10652,25 @@
         <v>73</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>183</v>
+        <v>353</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>184</v>
+        <v>73</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>73</v>
@@ -10651,18 +10678,18 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>73</v>
@@ -10674,17 +10701,15 @@
         <v>73</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>126</v>
+        <v>188</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>127</v>
+        <v>189</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>129</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="M85" s="2"/>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>73</v>
@@ -10733,25 +10758,25 @@
         <v>73</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>73</v>
@@ -10759,11 +10784,11 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>189</v>
+        <v>139</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -10776,26 +10801,24 @@
         <v>73</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>73</v>
       </c>
@@ -10843,7 +10866,7 @@
         <v>73</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>74</v>
@@ -10861,7 +10884,7 @@
         <v>73</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>123</v>
+        <v>192</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>73</v>
@@ -10869,39 +10892,43 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>73</v>
+        <v>198</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>354</v>
+        <v>199</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M87" s="2"/>
-      <c r="N87" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O87" t="s" s="2">
         <v>73</v>
       </c>
@@ -10925,13 +10952,13 @@
         <v>73</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>356</v>
+        <v>73</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>357</v>
+        <v>73</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>73</v>
@@ -10949,25 +10976,25 @@
         <v>73</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>353</v>
+        <v>201</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>73</v>
@@ -10975,7 +11002,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -10983,7 +11010,7 @@
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F88" t="s" s="2">
         <v>80</v>
@@ -10998,13 +11025,13 @@
         <v>81</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -11031,13 +11058,13 @@
         <v>73</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>73</v>
+        <v>364</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>73</v>
+        <v>365</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>73</v>
@@ -11055,10 +11082,10 @@
         <v>73</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -11081,7 +11108,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11089,7 +11116,7 @@
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F89" t="s" s="2">
         <v>80</v>
@@ -11104,13 +11131,13 @@
         <v>81</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>180</v>
+        <v>94</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11161,7 +11188,7 @@
         <v>73</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>74</v>
@@ -11182,12 +11209,12 @@
         <v>73</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>375</v>
+        <v>73</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11210,13 +11237,13 @@
         <v>81</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -11267,7 +11294,7 @@
         <v>73</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>74</v>
@@ -11288,12 +11315,12 @@
         <v>73</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11301,7 +11328,7 @@
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F91" t="s" s="2">
         <v>80</v>
@@ -11316,13 +11343,13 @@
         <v>81</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -11373,7 +11400,7 @@
         <v>73</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>74</v>
@@ -11394,12 +11421,12 @@
         <v>73</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>73</v>
+        <v>386</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11422,13 +11449,13 @@
         <v>81</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -11479,7 +11506,7 @@
         <v>73</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>74</v>
@@ -11505,7 +11532,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11516,7 +11543,7 @@
         <v>74</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>73</v>
@@ -11528,13 +11555,13 @@
         <v>81</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -11585,13 +11612,13 @@
         <v>73</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>73</v>
@@ -11611,7 +11638,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -11634,13 +11661,13 @@
         <v>81</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>175</v>
+        <v>223</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -11691,7 +11718,7 @@
         <v>73</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>74</v>
@@ -11717,7 +11744,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -11728,7 +11755,7 @@
         <v>74</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>73</v>
@@ -11737,16 +11764,16 @@
         <v>73</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>181</v>
+        <v>391</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>182</v>
+        <v>392</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -11797,25 +11824,25 @@
         <v>73</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>183</v>
+        <v>390</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>184</v>
+        <v>73</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>73</v>
@@ -11823,18 +11850,18 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>73</v>
@@ -11846,17 +11873,15 @@
         <v>73</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>126</v>
+        <v>188</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>127</v>
+        <v>189</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>129</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="M96" s="2"/>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>73</v>
@@ -11905,25 +11930,25 @@
         <v>73</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>73</v>
@@ -11931,11 +11956,11 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>189</v>
+        <v>139</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -11948,26 +11973,24 @@
         <v>73</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
         <v>73</v>
       </c>
@@ -12015,7 +12038,7 @@
         <v>73</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>74</v>
@@ -12033,7 +12056,7 @@
         <v>73</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>123</v>
+        <v>192</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>73</v>
@@ -12041,39 +12064,43 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>73</v>
+        <v>198</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I98" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>194</v>
+        <v>125</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>389</v>
+        <v>199</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O98" t="s" s="2">
         <v>73</v>
       </c>
@@ -12097,13 +12124,13 @@
         <v>73</v>
       </c>
       <c r="W98" t="s" s="2">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>391</v>
+        <v>73</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>392</v>
+        <v>73</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>73</v>
@@ -12121,25 +12148,25 @@
         <v>73</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>388</v>
+        <v>201</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>73</v>
@@ -12147,7 +12174,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12170,13 +12197,13 @@
         <v>81</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>394</v>
+        <v>203</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -12203,13 +12230,13 @@
         <v>73</v>
       </c>
       <c r="W99" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>73</v>
+        <v>399</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>73</v>
+        <v>400</v>
       </c>
       <c r="Z99" t="s" s="2">
         <v>73</v>
@@ -12227,7 +12254,7 @@
         <v>73</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>74</v>
@@ -12253,7 +12280,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12276,13 +12303,13 @@
         <v>81</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>150</v>
+        <v>402</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -12333,7 +12360,7 @@
         <v>73</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>74</v>
@@ -12359,7 +12386,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12382,13 +12409,13 @@
         <v>81</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -12439,7 +12466,7 @@
         <v>73</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>74</v>
@@ -12465,7 +12492,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -12485,16 +12512,16 @@
         <v>73</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>181</v>
+        <v>409</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>182</v>
+        <v>410</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -12545,7 +12572,7 @@
         <v>73</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>183</v>
+        <v>408</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>74</v>
@@ -12557,13 +12584,13 @@
         <v>73</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>184</v>
+        <v>73</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>73</v>
@@ -12571,18 +12598,18 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>73</v>
@@ -12594,17 +12621,15 @@
         <v>73</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>126</v>
+        <v>188</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>127</v>
+        <v>189</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>129</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="M103" s="2"/>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
         <v>73</v>
@@ -12653,25 +12678,25 @@
         <v>73</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>73</v>
@@ -12679,11 +12704,11 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>189</v>
+        <v>139</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
@@ -12696,26 +12721,24 @@
         <v>73</v>
       </c>
       <c r="H104" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
         <v>73</v>
       </c>
@@ -12763,7 +12786,7 @@
         <v>73</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>74</v>
@@ -12781,7 +12804,7 @@
         <v>73</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>123</v>
+        <v>192</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>73</v>
@@ -12789,39 +12812,43 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>73</v>
+        <v>198</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H105" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I105" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>407</v>
+        <v>199</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M105" s="2"/>
-      <c r="N105" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O105" t="s" s="2">
         <v>73</v>
       </c>
@@ -12869,25 +12896,25 @@
         <v>73</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>406</v>
+        <v>201</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>73</v>
@@ -12895,7 +12922,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -12918,13 +12945,13 @@
         <v>81</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
@@ -12975,7 +13002,7 @@
         <v>73</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>74</v>
@@ -13001,7 +13028,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13024,13 +13051,13 @@
         <v>81</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
@@ -13081,7 +13108,7 @@
         <v>73</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>74</v>
@@ -13107,7 +13134,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13127,16 +13154,16 @@
         <v>73</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>181</v>
+        <v>421</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>182</v>
+        <v>422</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -13187,7 +13214,7 @@
         <v>73</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>183</v>
+        <v>420</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>74</v>
@@ -13199,13 +13226,13 @@
         <v>73</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>184</v>
+        <v>73</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>73</v>
@@ -13213,18 +13240,18 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F109" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>73</v>
@@ -13236,17 +13263,15 @@
         <v>73</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>126</v>
+        <v>188</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>127</v>
+        <v>189</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>129</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="M109" s="2"/>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
         <v>73</v>
@@ -13295,25 +13320,25 @@
         <v>73</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>73</v>
@@ -13321,11 +13346,11 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
-        <v>189</v>
+        <v>139</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
@@ -13338,26 +13363,24 @@
         <v>73</v>
       </c>
       <c r="H110" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I110" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
         <v>73</v>
       </c>
@@ -13405,7 +13428,7 @@
         <v>73</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>74</v>
@@ -13423,7 +13446,7 @@
         <v>73</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>123</v>
+        <v>192</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>73</v>
@@ -13431,39 +13454,43 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
-        <v>73</v>
+        <v>198</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F111" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G111" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H111" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I111" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>419</v>
+        <v>199</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="M111" s="2"/>
-      <c r="N111" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O111" t="s" s="2">
         <v>73</v>
       </c>
@@ -13511,25 +13538,25 @@
         <v>73</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>418</v>
+        <v>201</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>73</v>
@@ -13537,7 +13564,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -13560,13 +13587,13 @@
         <v>81</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -13617,7 +13644,7 @@
         <v>73</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>74</v>
@@ -13641,8 +13668,114 @@
         <v>73</v>
       </c>
     </row>
+    <row r="113" hidden="true">
+      <c r="A113" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="B113" s="2"/>
+      <c r="C113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D113" s="2"/>
+      <c r="E113" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M113" s="2"/>
+      <c r="N113" s="2"/>
+      <c r="O113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P113" s="2"/>
+      <c r="Q113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL113" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AL112">
+  <autoFilter ref="A1:AL113">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13652,7 +13785,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI111">
+  <conditionalFormatting sqref="A2:AI112">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-genome-entity.xlsx
+++ b/output/StructureDefinition-genome-entity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T16:34:31+02:00</t>
+    <t>2023-04-14T09:19:10+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-genome-entity.xlsx
+++ b/output/StructureDefinition-genome-entity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-14T09:19:10+02:00</t>
+    <t>2023-04-25T09:25:14+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -9512,7 +9512,7 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>75</v>
@@ -10580,7 +10580,7 @@
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F84" t="s" s="2">
         <v>80</v>

--- a/output/StructureDefinition-genome-entity.xlsx
+++ b/output/StructureDefinition-genome-entity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-25T09:25:14+02:00</t>
+    <t>2023-05-04T10:39:35+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1118,7 +1118,7 @@
     <t>Configurations of the external repository. The repository shall store target's observedSeq or records related with target's observedSeq.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:repository.type}
+    <t xml:space="preserve">pattern:type}
 </t>
   </si>
   <si>
@@ -1700,7 +1700,7 @@
     <col min="24" max="24" width="76.5390625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="59.96484375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.1015625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.84375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="30.39453125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="15.703125" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.125" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-genome-entity.xlsx
+++ b/output/StructureDefinition-genome-entity.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3807" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3807" uniqueCount="433">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T10:39:35+02:00</t>
+    <t>2023-05-04T16:19:38+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1192,6 +1192,9 @@
   </si>
   <si>
     <t>genome-entity-db</t>
+  </si>
+  <si>
+    <t>other</t>
   </si>
   <si>
     <t>The database listing the molecular entity</t>
@@ -11043,7 +11046,7 @@
         <v>73</v>
       </c>
       <c r="R88" t="s" s="2">
-        <v>73</v>
+        <v>381</v>
       </c>
       <c r="S88" t="s" s="2">
         <v>73</v>
@@ -11240,10 +11243,10 @@
         <v>188</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -11315,7 +11318,7 @@
         <v>73</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="91" hidden="true">
@@ -11346,10 +11349,10 @@
         <v>188</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -11421,7 +11424,7 @@
         <v>73</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="92" hidden="true">
@@ -11638,7 +11641,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -11664,10 +11667,10 @@
         <v>223</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -11718,7 +11721,7 @@
         <v>73</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>74</v>
@@ -11744,7 +11747,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -11770,10 +11773,10 @@
         <v>183</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -11824,7 +11827,7 @@
         <v>73</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>74</v>
@@ -11850,7 +11853,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -11956,7 +11959,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12064,7 +12067,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12174,7 +12177,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12200,10 +12203,10 @@
         <v>203</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -12233,10 +12236,10 @@
         <v>154</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Z99" t="s" s="2">
         <v>73</v>
@@ -12254,7 +12257,7 @@
         <v>73</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>74</v>
@@ -12280,7 +12283,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12303,13 +12306,13 @@
         <v>81</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -12360,7 +12363,7 @@
         <v>73</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>74</v>
@@ -12386,7 +12389,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12412,10 +12415,10 @@
         <v>158</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -12466,7 +12469,7 @@
         <v>73</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>74</v>
@@ -12492,7 +12495,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -12518,10 +12521,10 @@
         <v>183</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -12572,7 +12575,7 @@
         <v>73</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>74</v>
@@ -12598,7 +12601,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -12704,7 +12707,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -12812,7 +12815,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -12922,7 +12925,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -12948,10 +12951,10 @@
         <v>158</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
@@ -13002,7 +13005,7 @@
         <v>73</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>74</v>
@@ -13028,7 +13031,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13054,10 +13057,10 @@
         <v>158</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
@@ -13108,7 +13111,7 @@
         <v>73</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>74</v>
@@ -13134,7 +13137,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13160,10 +13163,10 @@
         <v>183</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -13214,7 +13217,7 @@
         <v>73</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>74</v>
@@ -13240,7 +13243,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13346,7 +13349,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13454,7 +13457,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -13564,7 +13567,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -13590,10 +13593,10 @@
         <v>158</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -13644,7 +13647,7 @@
         <v>73</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>74</v>
@@ -13670,7 +13673,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -13696,10 +13699,10 @@
         <v>158</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -13750,7 +13753,7 @@
         <v>73</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>74</v>

--- a/output/StructureDefinition-genome-entity.xlsx
+++ b/output/StructureDefinition-genome-entity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T16:19:38+02:00</t>
+    <t>2023-05-04T17:29:13+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
